--- a/doc/A1_ファイル構成一覧表_PS_完成版.xlsx
+++ b/doc/A1_ファイル構成一覧表_PS_完成版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5163431-B093-4285-8379-5B754DCF05A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC766E-0776-4524-821D-437F8B7DCF56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="0" windowWidth="14400" windowHeight="7810" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,16 +101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>User関連のデータ操作モデル</t>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>User1行分のデータを持つ、エンティティモデル</t>
     <rPh sb="5" eb="6">
       <t>ギョウ</t>
@@ -635,31 +625,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Userinformations.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Trainingrecords.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Trainingmenus.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トレーニング記録関連のデータ操作モデル</t>
-    <rPh sb="6" eb="8">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トレーニング記録1行分のデータを持つ、エンティティモデル</t>
     <rPh sb="6" eb="8">
       <t>キロク</t>
@@ -676,16 +641,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トレーニングメニュー関連のデータ操作モデル</t>
-    <rPh sb="10" eb="12">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トレーニングメニュー1行分のデータを持つ、エンティティモデル</t>
     <rPh sb="11" eb="12">
       <t>ギョウ</t>
@@ -841,26 +796,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>岩田、槇、長谷川</t>
-    <rPh sb="0" eb="2">
-      <t>イワタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マキ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ハセガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飯田、工藤、ファリハ</t>
-    <rPh sb="0" eb="2">
-      <t>イイダ</t>
-    </rPh>
+    <t>Alltable.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル関連のデータ操作モデル</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lvsum.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Expsum.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル計算関連のデータ操作モデル</t>
     <rPh sb="3" eb="5">
-      <t>クドウ</t>
-    </rPh>
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exp計算関連のデータ操作モデル</t>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_ranking.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w_ranking.css</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1254,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1265,7 +1241,7 @@
     <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.83203125" customWidth="1"/>
     <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1294,19 +1270,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1315,19 +1291,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1336,19 +1312,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1357,19 +1333,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1378,19 +1354,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1399,19 +1375,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1420,19 +1396,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1441,19 +1417,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1462,19 +1438,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1483,19 +1459,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1503,19 +1479,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1524,19 +1500,19 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1545,19 +1521,19 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1566,19 +1542,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1587,19 +1563,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1608,19 +1584,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1629,19 +1605,19 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1650,19 +1626,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1671,19 +1647,19 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1692,19 +1668,19 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1713,19 +1689,19 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1746,7 +1722,7 @@
         <v>9</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1761,13 +1737,13 @@
         <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1782,13 +1758,13 @@
         <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1803,13 +1779,13 @@
         <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1824,13 +1800,13 @@
         <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1845,13 +1821,13 @@
         <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1866,13 +1842,13 @@
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1887,13 +1863,13 @@
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1908,13 +1884,13 @@
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1929,13 +1905,13 @@
         <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1950,13 +1926,13 @@
         <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1971,13 +1947,13 @@
         <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1992,13 +1968,13 @@
         <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2013,13 +1989,13 @@
         <v>10</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2034,13 +2010,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2055,13 +2031,13 @@
         <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2076,13 +2052,13 @@
         <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2097,13 +2073,13 @@
         <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2121,10 +2097,10 @@
         <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2139,13 +2115,13 @@
         <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2160,13 +2136,13 @@
         <v>11</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2175,19 +2151,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2196,19 +2172,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2217,19 +2193,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2238,19 +2214,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2259,19 +2235,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2280,19 +2256,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2301,19 +2277,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2322,19 +2298,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2343,19 +2319,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2519,21 +2495,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2704,10 +2665,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2730,20 +2717,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/A1_ファイル構成一覧表_PS_完成版.xlsx
+++ b/doc/A1_ファイル構成一覧表_PS_完成版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC766E-0776-4524-821D-437F8B7DCF56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAED5A76-83B9-4260-A27D-79D5A3368A07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="3280" yWindow="320" windowWidth="15260" windowHeight="9880" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -837,6 +837,17 @@
   </si>
   <si>
     <t>w_ranking.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通画面用jsp</t>
+    <rPh sb="0" eb="5">
+      <t>キョウツウガメンヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -861,7 +872,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,6 +882,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +921,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,6 +929,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1228,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G67"/>
+  <dimension ref="B2:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1275,7 +1295,7 @@
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1287,7 +1307,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B19" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B54" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1296,7 +1316,7 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1317,7 +1337,7 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1338,7 +1358,7 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1359,7 +1379,7 @@
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1380,7 +1400,7 @@
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1401,7 +1421,7 @@
       <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1422,7 +1442,7 @@
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1443,7 +1463,7 @@
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1464,7 +1484,7 @@
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1476,22 +1496,23 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1505,14 +1526,14 @@
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1526,14 +1547,14 @@
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>44</v>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1547,14 +1568,14 @@
       <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>45</v>
+      <c r="E16" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1568,14 +1589,14 @@
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>46</v>
+      <c r="E17" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1589,14 +1610,14 @@
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>47</v>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1610,19 +1631,19 @@
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>122</v>
+      <c r="E19" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
-        <f t="shared" ref="B20:B67" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1631,19 +1652,19 @@
       <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>123</v>
+      <c r="E20" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1652,19 +1673,19 @@
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>48</v>
+      <c r="E21" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1673,19 +1694,19 @@
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>49</v>
+      <c r="E22" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1694,40 +1715,40 @@
       <c r="D23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>50</v>
+      <c r="E23" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1736,11 +1757,11 @@
       <c r="D25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>75</v>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>109</v>
@@ -1748,7 +1769,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1757,19 +1778,19 @@
       <c r="D26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>77</v>
+      <c r="E26" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1778,19 +1799,19 @@
       <c r="D27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>79</v>
+      <c r="E27" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1799,19 +1820,19 @@
       <c r="D28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>80</v>
+      <c r="E28" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1820,19 +1841,19 @@
       <c r="D29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>71</v>
+      <c r="E29" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1841,19 +1862,19 @@
       <c r="D30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>72</v>
+      <c r="E30" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1862,11 +1883,11 @@
       <c r="D31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>81</v>
+      <c r="E31" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>113</v>
@@ -1874,7 +1895,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1883,11 +1904,11 @@
       <c r="D32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>82</v>
+      <c r="E32" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>113</v>
@@ -1895,7 +1916,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1904,19 +1925,19 @@
       <c r="D33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>73</v>
+      <c r="E33" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1925,19 +1946,19 @@
       <c r="D34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>74</v>
+      <c r="E34" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1946,40 +1967,40 @@
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>70</v>
+      <c r="E35" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>83</v>
+        <v>7</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1988,19 +2009,19 @@
       <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>84</v>
+      <c r="E37" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2009,40 +2030,40 @@
       <c r="D38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>85</v>
+      <c r="E38" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2051,19 +2072,19 @@
       <c r="D40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>89</v>
+      <c r="E40" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -2072,19 +2093,19 @@
       <c r="D41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>90</v>
+      <c r="E41" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2093,19 +2114,19 @@
       <c r="D42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>91</v>
+      <c r="E42" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -2114,19 +2135,19 @@
       <c r="D43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>118</v>
+      <c r="E43" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -2135,40 +2156,40 @@
       <c r="D44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>119</v>
+      <c r="E44" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2177,19 +2198,19 @@
       <c r="D46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>21</v>
+      <c r="E46" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -2198,11 +2219,11 @@
       <c r="D47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>95</v>
+      <c r="E47" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>109</v>
@@ -2210,7 +2231,7 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2219,19 +2240,19 @@
       <c r="D48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>96</v>
+      <c r="E48" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2240,19 +2261,19 @@
       <c r="D49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>97</v>
+      <c r="E49" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2261,19 +2282,19 @@
       <c r="D50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>98</v>
+      <c r="E50" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2282,19 +2303,19 @@
       <c r="D51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>99</v>
+      <c r="E51" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2303,19 +2324,19 @@
       <c r="D52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>100</v>
+      <c r="E52" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2324,35 +2345,46 @@
       <c r="D53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>101</v>
+      <c r="E53" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B55:B68" si="1">ROW()-2</f>
         <v>53</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2363,7 +2395,6 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2486,6 +2517,17 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="1">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2495,6 +2537,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2665,36 +2722,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2717,9 +2748,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/A1_ファイル構成一覧表_PS_完成版.xlsx
+++ b/doc/A1_ファイル構成一覧表_PS_完成版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAED5A76-83B9-4260-A27D-79D5A3368A07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7035E2-20E3-462B-BFCC-003E06A7B939}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="320" windowWidth="15260" windowHeight="9880" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="2960" yWindow="270" windowWidth="16080" windowHeight="9880" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="129">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -532,10 +532,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UpdateDeleteServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新削除画面用</t>
     <rPh sb="0" eb="4">
       <t>コウシンサクジョ</t>
@@ -848,6 +844,31 @@
     <rPh sb="0" eb="5">
       <t>キョウツウガメンヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginUser.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインユーザー情報1行分のデータを持つ、エンティティモデル</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ギョウブン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Calendar_UpdateDeleteServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mypage_UpdateDeleteServlet</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1248,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G68"/>
+  <dimension ref="B2:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1302,12 +1323,12 @@
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B54" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B56" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1323,7 +1344,7 @@
         <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1344,7 +1365,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1365,7 +1386,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1386,7 +1407,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1407,7 +1428,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1428,7 +1449,7 @@
         <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1449,7 +1470,7 @@
         <v>41</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1470,7 +1491,7 @@
         <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1491,7 +1512,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1506,13 +1527,13 @@
         <v>14</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1530,10 +1551,10 @@
         <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1554,7 +1575,7 @@
         <v>51</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1575,7 +1596,7 @@
         <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1596,7 +1617,7 @@
         <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1617,7 +1638,7 @@
         <v>54</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1638,7 +1659,7 @@
         <v>55</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1653,13 +1674,13 @@
         <v>23</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1674,13 +1695,13 @@
         <v>23</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1701,7 +1722,7 @@
         <v>58</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1722,7 +1743,7 @@
         <v>59</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1743,7 +1764,7 @@
         <v>60</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1764,7 +1785,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1785,7 +1806,7 @@
         <v>76</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1800,13 +1821,13 @@
         <v>7</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1821,13 +1842,13 @@
         <v>7</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1842,13 +1863,13 @@
         <v>7</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1863,13 +1884,13 @@
         <v>7</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1884,13 +1905,13 @@
         <v>7</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1905,13 +1926,13 @@
         <v>7</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1926,13 +1947,13 @@
         <v>7</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1947,13 +1968,13 @@
         <v>7</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1968,13 +1989,13 @@
         <v>7</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1989,10 +2010,10 @@
         <v>7</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>114</v>
@@ -2007,16 +2028,16 @@
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2031,13 +2052,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2052,13 +2073,13 @@
         <v>10</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2070,16 +2091,16 @@
         <v>6</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2094,13 +2115,13 @@
         <v>11</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2115,13 +2136,13 @@
         <v>11</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2136,13 +2157,13 @@
         <v>11</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2157,13 +2178,13 @@
         <v>11</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2178,13 +2199,13 @@
         <v>11</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2193,19 +2214,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2214,19 +2235,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2241,13 +2262,13 @@
         <v>18</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2262,13 +2283,13 @@
         <v>18</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2283,13 +2304,13 @@
         <v>18</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2304,13 +2325,13 @@
         <v>18</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2325,13 +2346,13 @@
         <v>18</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2346,13 +2367,13 @@
         <v>18</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2367,39 +2388,60 @@
         <v>18</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1">
-        <f t="shared" ref="B55:B68" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B57:B70" si="1">ROW()-2</f>
         <v>55</v>
       </c>
       <c r="C57" s="1"/>
@@ -2416,7 +2458,6 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -2528,6 +2569,28 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="1">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2537,21 +2600,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2722,10 +2770,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2748,20 +2822,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>